--- a/FlorenceCPL/FlorenceCPL/bin/Debug/beerType.xlsx
+++ b/FlorenceCPL/FlorenceCPL/bin/Debug/beerType.xlsx
@@ -16,120 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Premium Pilsner</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>0.02</t>
   </si>
   <si>
     <t>Old Ale</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>FreeB</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>0.01</t>
   </si>
   <si>
     <t>ClearBeer</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>Forbidden Fruit</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>Grand Cru</t>
   </si>
   <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
     <t>Light</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>0.174</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.156</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.201</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.214</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>0.247</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -173,6 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -467,308 +384,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25">
+    <row r="1" spans="1:16" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C1" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N1" s="3">
+        <v>0.18879000000000001</v>
+      </c>
+      <c r="O1">
+        <v>0.232875</v>
+      </c>
+      <c r="P1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.16925999999999999</v>
+      </c>
+      <c r="O2">
+        <v>0.22666500000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.14321999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.208035</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
+      <c r="B4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.17468500000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.27220499999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:16" ht="26.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.23219000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.34879500000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="26.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.23219000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.34879500000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="26.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="26.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
+      <c r="B7" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.03</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -782,8 +720,8 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
+      <c r="I7" s="2">
+        <v>0.5</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -797,11 +735,14 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>35</v>
+      <c r="N7" s="3">
+        <v>0.16383500000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.25564500000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
